--- a/result/with_base/134/valence/s07_3.xlsx
+++ b/result/with_base/134/valence/s07_3.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7475000023841858</v>
+        <v>0.7879464328289032</v>
       </c>
       <c r="C2" t="n">
-        <v>41739.439453125</v>
+        <v>11287.26025390625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7740909077904441</v>
+        <v>0.7886029411764706</v>
       </c>
       <c r="E2" t="n">
-        <v>41738.20525568182</v>
+        <v>11287.92537913603</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8225000202655792</v>
+        <v>0.8381696343421936</v>
       </c>
       <c r="C3" t="n">
-        <v>40975.216796875</v>
+        <v>10985.0576171875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8481818220832131</v>
+        <v>0.8493960079024819</v>
       </c>
       <c r="E3" t="n">
-        <v>40974.25248579546</v>
+        <v>10985.02039292279</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8524999916553497</v>
+        <v>0.8510044515132904</v>
       </c>
       <c r="C4" t="n">
-        <v>40210.404296875</v>
+        <v>10686.83154296875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8995454473928972</v>
+        <v>0.8793986334520227</v>
       </c>
       <c r="E4" t="n">
-        <v>40208.97301136364</v>
+        <v>10686.50149356618</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8683035671710968</v>
       </c>
       <c r="C5" t="n">
-        <v>39453.66796875</v>
+        <v>10393.2177734375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9267045476219871</v>
+        <v>0.9172794117647058</v>
       </c>
       <c r="E5" t="n">
-        <v>39453.32102272727</v>
+        <v>10392.25425091912</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.8928571343421936</v>
       </c>
       <c r="C6" t="n">
-        <v>38706.66015625</v>
+        <v>10105.11962890625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9513636231422424</v>
+        <v>0.9271927510990816</v>
       </c>
       <c r="E6" t="n">
-        <v>38706.57705965909</v>
+        <v>10104.75539981618</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.8967633843421936</v>
       </c>
       <c r="C7" t="n">
-        <v>37972.482421875</v>
+        <v>9824.38232421875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9582954482598738</v>
+        <v>0.9388130237074459</v>
       </c>
       <c r="E7" t="n">
-        <v>37971.68678977273</v>
+        <v>9823.859432444853</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9135044515132904</v>
       </c>
       <c r="C8" t="n">
-        <v>37248.716796875</v>
+        <v>9550.111328125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9690909114750949</v>
+        <v>0.9481355057043188</v>
       </c>
       <c r="E8" t="n">
-        <v>37248.02130681818</v>
+        <v>9549.371380974264</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8973214328289032</v>
       </c>
       <c r="C9" t="n">
-        <v>36536.404296875</v>
+        <v>9282.22802734375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9763636534864252</v>
+        <v>0.9390099784907173</v>
       </c>
       <c r="E9" t="n">
-        <v>36535.72443181818</v>
+        <v>9281.676125919117</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9135044515132904</v>
       </c>
       <c r="C10" t="n">
-        <v>35836.82421875</v>
+        <v>9020.4072265625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.975909108465368</v>
+        <v>0.9583114490789526</v>
       </c>
       <c r="E10" t="n">
-        <v>35835.64346590909</v>
+        <v>9019.606330422794</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C11" t="n">
-        <v>35147.83984375</v>
+        <v>8765.17431640625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9765909259969537</v>
+        <v>0.9638918077244478</v>
       </c>
       <c r="E11" t="n">
-        <v>35146.96448863636</v>
+        <v>8764.392520680147</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34471.0703125</v>
+        <v>8516.31982421875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9843181859363209</v>
+        <v>0.9664522058823529</v>
       </c>
       <c r="E12" t="n">
-        <v>34470.14808238636</v>
+        <v>8515.50919117647</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C13" t="n">
-        <v>33805.91796875</v>
+        <v>8273.62548828125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9880681904879484</v>
+        <v>0.9649422273916357</v>
       </c>
       <c r="E13" t="n">
-        <v>33805.10227272727</v>
+        <v>8272.875</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C14" t="n">
-        <v>33152.2421875</v>
+        <v>8037.027099609375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.989545464515686</v>
+        <v>0.9782037805108463</v>
       </c>
       <c r="E14" t="n">
-        <v>33151.71590909091</v>
+        <v>8036.261259191177</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C15" t="n">
-        <v>32510.3115234375</v>
+        <v>7806.499267578125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9884091019630432</v>
+        <v>0.9750525215092827</v>
       </c>
       <c r="E15" t="n">
-        <v>32509.88689630682</v>
+        <v>7805.716452205882</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C16" t="n">
-        <v>31879.8857421875</v>
+        <v>7581.911865234375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.9824054626857534</v>
       </c>
       <c r="E16" t="n">
-        <v>31879.32936789773</v>
+        <v>7581.088809742647</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C17" t="n">
-        <v>31261.5205078125</v>
+        <v>7363.1142578125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9898863705721769</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E17" t="n">
-        <v>31260.36239346591</v>
+        <v>7362.23770680147</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9296875</v>
       </c>
       <c r="C18" t="n">
-        <v>30653.52734375</v>
+        <v>7149.871337890625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9892331922755522</v>
       </c>
       <c r="E18" t="n">
-        <v>30652.40713778409</v>
+        <v>7149.02596507353</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C19" t="n">
-        <v>30056.6591796875</v>
+        <v>6942.324951171875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9893181920051575</v>
+        <v>0.9864758393343758</v>
       </c>
       <c r="E19" t="n">
-        <v>30055.58043323864</v>
+        <v>6941.477912454044</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.93359375</v>
       </c>
       <c r="C20" t="n">
-        <v>29470.2607421875</v>
+        <v>6740.12158203125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E20" t="n">
-        <v>29469.34499289773</v>
+        <v>6739.303481158088</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9296875</v>
       </c>
       <c r="C21" t="n">
-        <v>28895.0205078125</v>
+        <v>6543.2431640625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9914772781458768</v>
+        <v>0.9864758393343758</v>
       </c>
       <c r="E21" t="n">
-        <v>28893.95401278409</v>
+        <v>6542.499167049632</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C22" t="n">
-        <v>28330.0927734375</v>
+        <v>6351.6669921875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E22" t="n">
-        <v>28329.04421164773</v>
+        <v>6350.8515625</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C23" t="n">
-        <v>27775.6875</v>
+        <v>6165.1064453125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9869353981579051</v>
       </c>
       <c r="E23" t="n">
-        <v>27774.60102982954</v>
+        <v>6164.35311351103</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27230.71875</v>
+        <v>5983.580810546875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E24" t="n">
-        <v>27230.17684659091</v>
+        <v>5982.814223345588</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.921875</v>
       </c>
       <c r="C25" t="n">
-        <v>26696.193359375</v>
+        <v>5806.845458984375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9938944332739886</v>
       </c>
       <c r="E25" t="n">
-        <v>26695.79403409091</v>
+        <v>5806.137264476103</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9296875</v>
       </c>
       <c r="C26" t="n">
-        <v>26172.0556640625</v>
+        <v>5635.004150390625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E26" t="n">
-        <v>26171.33416193182</v>
+        <v>5634.22713694853</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.93359375</v>
       </c>
       <c r="C27" t="n">
-        <v>25656.9892578125</v>
+        <v>5467.669677734375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E27" t="n">
-        <v>25656.4296875</v>
+        <v>5466.95694508272</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C28" t="n">
-        <v>25151.5107421875</v>
+        <v>5304.99560546875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9824054626857534</v>
       </c>
       <c r="E28" t="n">
-        <v>25151.10031960227</v>
+        <v>5304.272575827206</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C29" t="n">
-        <v>24655.763671875</v>
+        <v>5146.533935546875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E29" t="n">
-        <v>24655.14861505682</v>
+        <v>5145.870260799632</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C30" t="n">
-        <v>24169.0263671875</v>
+        <v>4992.45556640625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E30" t="n">
-        <v>24168.43146306818</v>
+        <v>4991.829618566177</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.93359375</v>
       </c>
       <c r="C31" t="n">
-        <v>23690.953125</v>
+        <v>4842.6376953125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9984090924263</v>
+        <v>0.9866727941176471</v>
       </c>
       <c r="E31" t="n">
-        <v>23690.69211647727</v>
+        <v>4842.003934972427</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9375</v>
       </c>
       <c r="C32" t="n">
-        <v>23222.390625</v>
+        <v>4696.759521484375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9933035724303302</v>
       </c>
       <c r="E32" t="n">
-        <v>23221.84019886364</v>
+        <v>4696.192842371323</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.93359375</v>
       </c>
       <c r="C33" t="n">
-        <v>22762.21484375</v>
+        <v>4554.95361328125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E33" t="n">
-        <v>22761.69105113636</v>
+        <v>4554.397001378677</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.94140625</v>
       </c>
       <c r="C34" t="n">
-        <v>22311.13671875</v>
+        <v>4417.02001953125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E34" t="n">
-        <v>22310.13299005682</v>
+        <v>4416.533806295956</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C35" t="n">
-        <v>21867.7412109375</v>
+        <v>4282.953125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E35" t="n">
-        <v>21866.94069602273</v>
+        <v>4282.45068359375</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C36" t="n">
-        <v>21432.583984375</v>
+        <v>4152.419677734375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9925814060603871</v>
       </c>
       <c r="E36" t="n">
-        <v>21432.07297585227</v>
+        <v>4152.027056525735</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9296875</v>
       </c>
       <c r="C37" t="n">
-        <v>21005.859375</v>
+        <v>4025.581298828125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E37" t="n">
-        <v>21005.28781960227</v>
+        <v>4025.219209558823</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9391741156578064</v>
       </c>
       <c r="C38" t="n">
-        <v>20587.083984375</v>
+        <v>3902.308227539062</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9942883393343758</v>
       </c>
       <c r="E38" t="n">
-        <v>20586.46661931818</v>
+        <v>3901.939022288603</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9375</v>
       </c>
       <c r="C39" t="n">
-        <v>20175.8798828125</v>
+        <v>3782.4169921875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9962578766486224</v>
       </c>
       <c r="E39" t="n">
-        <v>20175.46466619318</v>
+        <v>3782.109518612132</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.92578125</v>
       </c>
       <c r="C40" t="n">
-        <v>19772.4912109375</v>
+        <v>3665.973876953125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E40" t="n">
-        <v>19772.14435369318</v>
+        <v>3665.605899586397</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C41" t="n">
-        <v>19376.919921875</v>
+        <v>3552.763916015625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9883140746284934</v>
       </c>
       <c r="E41" t="n">
-        <v>19376.37642045454</v>
+        <v>3552.387882008272</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C42" t="n">
-        <v>18988.634765625</v>
+        <v>3442.651733398438</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E42" t="n">
-        <v>18988.08433948864</v>
+        <v>3442.303883272059</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C43" t="n">
-        <v>18607.4453125</v>
+        <v>3335.632080078125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9925814060603871</v>
       </c>
       <c r="E43" t="n">
-        <v>18607.0625</v>
+        <v>3335.320413028493</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C44" t="n">
-        <v>18233.3603515625</v>
+        <v>3231.658569335938</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E44" t="n">
-        <v>18233.18607954546</v>
+        <v>3231.343290441177</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C45" t="n">
-        <v>17866.685546875</v>
+        <v>3130.630493164062</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.992056197979871</v>
       </c>
       <c r="E45" t="n">
-        <v>17866.35955255682</v>
+        <v>3130.301542394302</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.93359375</v>
       </c>
       <c r="C46" t="n">
-        <v>17506.736328125</v>
+        <v>3032.416137695312</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.984637604040258</v>
       </c>
       <c r="E46" t="n">
-        <v>17506.41743607954</v>
+        <v>3032.141357421875</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.93359375</v>
       </c>
       <c r="C47" t="n">
-        <v>17153.509765625</v>
+        <v>2937.037719726562</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.9915309863931993</v>
       </c>
       <c r="E47" t="n">
-        <v>17153.21661931818</v>
+        <v>2936.744370404412</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9296875</v>
       </c>
       <c r="C48" t="n">
-        <v>16807.1259765625</v>
+        <v>2844.3203125</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.9856223744504592</v>
       </c>
       <c r="E48" t="n">
-        <v>16806.6640625</v>
+        <v>2844.075870289522</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C49" t="n">
-        <v>16466.8115234375</v>
+        <v>2754.30712890625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9837184863931993</v>
       </c>
       <c r="E49" t="n">
-        <v>16466.65660511364</v>
+        <v>2754.057229434743</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C50" t="n">
-        <v>16133.34326171875</v>
+        <v>2666.745971679688</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9906775215092827</v>
       </c>
       <c r="E50" t="n">
-        <v>16133.09241832386</v>
+        <v>2666.570499195772</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,927 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15806.05859375</v>
+        <v>2581.809326171875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9891675430185655</v>
       </c>
       <c r="E51" t="n">
-        <v>15805.81090198864</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15484.9033203125</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15484.72798295455</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15169.90673828125</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15169.70454545455</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14860.8515625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14860.64337713068</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14557.82177734375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14557.4248046875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14260.076171875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14259.94327059659</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13968.3603515625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13968.111328125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13682.10400390625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13681.81596235795</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13401.18359375</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13400.96280184659</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13125.61328125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13125.4453125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12855.4833984375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12855.18350497159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12590.2548828125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12590.08451704545</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12330.23779296875</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12330.05424360795</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12075.2421875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12074.99786931818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11824.96875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11824.81392045455</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11579.66748046875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11579.41690340909</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11338.8037109375</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11338.69176136364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11102.7744140625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11102.58993252841</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10871.1103515625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10871.02476917614</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10644.10498046875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10643.92560369318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10421.3701171875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10421.18883167614</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10202.9560546875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10202.74325284091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9988.689453125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9988.503107244318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9778.66748046875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9778.407581676136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9572.5029296875</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9572.374378551136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9370.45849609375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9370.330255681818</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9172.3134765625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9172.198597301136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8977.98486328125</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8977.90234375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8787.5576171875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8787.407404119318</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8600.7353515625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8600.6201171875</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8417.54736328125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8417.468927556818</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5285714285714286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8428571428571429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.005882352941176471</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8428571428571429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.005882352941176471</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8857142857142857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01176470588235294</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8857142857142857</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01176470588235294</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.03529411764705882</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.03529411764705882</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9714285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9714285714285714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9857142857142858</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.06470588235294118</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9857142857142858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.06470588235294118</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7823529411764706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8117647058823529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8352941176470589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9352941176470588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01428571428571429</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9352941176470588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01428571428571429</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9647058823529412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9647058823529412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9882352941176471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1142857142857143</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9882352941176471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1142857142857143</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9941176470588236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.1571428571428571</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9941176470588236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.1571428571428571</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9959663865546219</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>2581.623822380515</v>
       </c>
     </row>
   </sheetData>
